--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-additional-name.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
